--- a/Tools/Data/3.MissionTable.xlsx
+++ b/Tools/Data/3.MissionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSoultion\Game\YoLoV8-GameQA\Tools\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939042CF-E3FE-420A-A459-5AAC1C537F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F07F0B-A288-4DC2-BB81-FEC89C069AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="2220" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
